--- a/_CLUSTER/groups_time_area/interpolation/combined_feature_engineering/Area3_count.xlsx
+++ b/_CLUSTER/groups_time_area/interpolation/combined_feature_engineering/Area3_count.xlsx
@@ -375,10 +375,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>18400</v>
+        <v>28671</v>
       </c>
     </row>
     <row r="3">
@@ -386,23 +386,23 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15628</v>
+        <v>12159</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11122</v>
+        <v>10505</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>9305</v>
+        <v>3120</v>
       </c>
     </row>
   </sheetData>

--- a/_CLUSTER/groups_time_area/interpolation/combined_feature_engineering/Area3_count.xlsx
+++ b/_CLUSTER/groups_time_area/interpolation/combined_feature_engineering/Area3_count.xlsx
@@ -375,34 +375,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>28671</v>
+        <v>28680</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>12159</v>
+        <v>12150</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>10505</v>
+        <v>10459</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3120</v>
+        <v>3166</v>
       </c>
     </row>
   </sheetData>
